--- a/biology/Zoologie/Althepus/Althepus.xlsx
+++ b/biology/Zoologie/Althepus/Althepus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Althepus est un genre d'araignées aranéomorphes de la famille des Psilodercidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Althepus est un genre d'araignées aranéomorphes de la famille des Psilodercidae.
 Environ 60 espèces sont connues mais de nombreuses autres restent à découvrir.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud et en Asie de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud et en Asie de l'Est.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces araignées se trouvent sous les tropiques dans des milieux sombres et humides tels les grottes et les forêts.
 </t>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces minuscules araignées ont six yeux, les fusules des filières postérieures alignées et un appareil génital haplogyne.
-Elles tissent au pied des arbres, dans les forêts, une toile horizontale en nappe constituée de couches de fils parallèles superposés et ordonnés[2].
+Elles tissent au pied des arbres, dans les forêts, une toile horizontale en nappe constituée de couches de fils parallèles superposés et ordonnés.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 20.0, 27/02/2019)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 20.0, 27/02/2019) :
 Althepus bako Deeleman-Reinhold, 1995
 Althepus bamensis Li &amp; Li, 2018
 Althepus biltoni Deeleman-Reinhold, 1995
@@ -696,7 +716,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Thorell, 1898 : Viaggio di Leonardo Fea in Birmania e regioni vicine. LXXX. Secondo saggio sui Ragni birmani. II. Retitelariae et Orbitelariae. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, no 19 (39), p. 271-378 (texte intégral).</t>
         </is>
